--- a/data/processed/admission/app_test_dataset.xlsx
+++ b/data/processed/admission/app_test_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.serna\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.serna\Documents\Github\ds4a-team-62\data\processed\admission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CBD17-BAB3-48D5-85A2-BA751D970B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE79E3-0B42-47E3-9074-299D6E285516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$P$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,12 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,63 +417,62 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="12" width="13.28515625" style="2"/>
-    <col min="14" max="15" width="13.28515625" style="2"/>
-    <col min="16" max="16" width="13.28515625" style="1"/>
+    <col min="11" max="12" width="13.28515625" style="1"/>
+    <col min="14" max="15" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -510,22 +507,22 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>1.0789473684210527</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M2" s="1">
         <v>21</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
@@ -560,28 +557,28 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>1.736842105263158</v>
       </c>
-      <c r="L3" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M3" s="1">
         <v>24</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -610,28 +607,28 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M4" s="1">
         <v>28</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.25</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -660,22 +657,22 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L5" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M5" s="1">
         <v>28</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.25</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>1</v>
       </c>
     </row>
@@ -710,22 +707,22 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>1.763157894736842</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="L6" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.1388888888888889</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
@@ -760,22 +757,22 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>1.9736842105263157</v>
       </c>
-      <c r="L7" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M7" s="1">
         <v>25</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.24</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
     </row>
@@ -810,28 +807,28 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.36842105263157893</v>
       </c>
-      <c r="L8" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.5714285714285714</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -852,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -860,22 +857,22 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>1.6842105263157894</v>
       </c>
-      <c r="L9" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.13636363636363635</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
@@ -910,28 +907,28 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>1.9473684210526316</v>
       </c>
-      <c r="L10" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M10" s="1">
         <v>14</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.5714285714285714</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -960,22 +957,22 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.39473684210526316</v>
       </c>
-      <c r="L11" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.6</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -1010,22 +1007,22 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>1.868421052631579</v>
       </c>
-      <c r="L12" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M12" s="1">
         <v>26</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0.30769230769230771</v>
       </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
@@ -1052,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1060,22 +1057,22 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.36842105263157893</v>
       </c>
-      <c r="L13" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0.25</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
     </row>
@@ -1110,22 +1107,22 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>1.9736842105263157</v>
       </c>
-      <c r="L14" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M14" s="1">
         <v>25</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.24</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
     </row>
@@ -1160,28 +1157,28 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L15" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M15" s="1">
         <v>26</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1202,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1210,22 +1207,22 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>1.9736842105263157</v>
       </c>
-      <c r="L16" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M16" s="1">
         <v>25</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>0.24</v>
       </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
@@ -1260,22 +1257,22 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>1.0789473684210527</v>
       </c>
-      <c r="L17" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="L17" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M17" s="1">
         <v>21</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>0</v>
       </c>
     </row>
@@ -1310,22 +1307,22 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>0.36842105263157893</v>
       </c>
-      <c r="L18" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>0.25</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -1360,28 +1357,28 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>0.39473684210526316</v>
       </c>
-      <c r="L19" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M19" s="1">
         <v>5</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>0.6</v>
       </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1410,22 +1407,22 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>0.5</v>
       </c>
-      <c r="L20" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="L20" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M20" s="1">
         <v>7</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>0.2857142857142857</v>
       </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
@@ -1460,22 +1457,22 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L21" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
     </row>
@@ -1510,22 +1507,22 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>2.0526315789473686</v>
       </c>
-      <c r="L22" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L22" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M22" s="1">
         <v>23</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>0.30434782608695654</v>
       </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
     </row>
@@ -1560,22 +1557,22 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L23" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L23" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M23" s="1">
         <v>28</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>0.25</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>1</v>
       </c>
     </row>
@@ -1602,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1610,28 +1607,28 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>2.0526315789473686</v>
       </c>
-      <c r="L24" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="L24" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M24" s="1">
         <v>23</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>0.30434782608695654</v>
       </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1660,22 +1657,22 @@
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>1.9473684210526316</v>
       </c>
-      <c r="L25" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M25" s="1">
         <v>14</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>0.5714285714285714</v>
       </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
     </row>
@@ -1710,22 +1707,22 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>1.868421052631579</v>
       </c>
-      <c r="L26" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="L26" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M26" s="1">
         <v>26</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.30769230769230771</v>
       </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>0</v>
       </c>
     </row>
@@ -1760,28 +1757,28 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L27" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="L27" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M27" s="1">
         <v>26</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1810,22 +1807,22 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>1.9473684210526316</v>
       </c>
-      <c r="L28" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="L28" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M28" s="1">
         <v>14</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.5714285714285714</v>
       </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
     </row>
@@ -1860,22 +1857,22 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>0.76315789473684215</v>
       </c>
-      <c r="L29" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="L29" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M29" s="1">
         <v>14</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>0.42857142857142855</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>1</v>
       </c>
     </row>
@@ -1910,22 +1907,22 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>1.6842105263157894</v>
       </c>
-      <c r="L30" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="L30" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M30" s="1">
         <v>22</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.13636363636363635</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>0</v>
       </c>
     </row>
@@ -1952,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1960,28 +1957,28 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>1.868421052631579</v>
       </c>
-      <c r="L31" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="L31" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M31" s="1">
         <v>26</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>0.30769230769230771</v>
       </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2010,22 +2007,22 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>1.9736842105263157</v>
       </c>
-      <c r="L32" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M32" s="1">
         <v>25</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0.24</v>
       </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>0</v>
       </c>
     </row>
@@ -2060,28 +2057,28 @@
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L33" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="L33" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M33" s="1">
         <v>26</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2110,22 +2107,22 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L34" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="L34" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M34" s="1">
         <v>28</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>0.25</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>0</v>
       </c>
     </row>
@@ -2160,28 +2157,28 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L35" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="L35" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M35" s="1">
         <v>28</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>0.25</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2210,28 +2207,28 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>1.868421052631579</v>
       </c>
-      <c r="L36" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="L36" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M36" s="1">
         <v>26</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>0.30769230769230771</v>
       </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2260,22 +2257,22 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>1.6842105263157894</v>
       </c>
-      <c r="L37" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="L37" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M37" s="1">
         <v>22</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>0.13636363636363635</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>0</v>
       </c>
     </row>
@@ -2310,22 +2307,22 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L38" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L38" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M38" s="1">
         <v>26</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>0</v>
       </c>
     </row>
@@ -2360,22 +2357,22 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L39" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="L39" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M39" s="1">
         <v>28</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>0.25</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>0</v>
       </c>
     </row>
@@ -2410,22 +2407,22 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>1.5526315789473684</v>
       </c>
-      <c r="L40" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="L40" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M40" s="1">
         <v>26</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>0.19230769230769232</v>
       </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>1</v>
       </c>
     </row>
@@ -2460,22 +2457,22 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>1.6052631578947369</v>
       </c>
-      <c r="L41" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="L41" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M41" s="1">
         <v>13</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>0.23076923076923078</v>
       </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>0</v>
       </c>
     </row>
@@ -2510,22 +2507,22 @@
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>1.9473684210526316</v>
       </c>
-      <c r="L42" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="L42" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M42" s="1">
         <v>15</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>0.46666666666666667</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>0</v>
       </c>
     </row>
@@ -2560,22 +2557,22 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>1.763157894736842</v>
       </c>
-      <c r="L43" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="L43" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M43" s="1">
         <v>36</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>0.1388888888888889</v>
       </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>0</v>
       </c>
     </row>
@@ -2610,22 +2607,22 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L44" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="L44" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M44" s="1">
         <v>28</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>0.25</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>1</v>
       </c>
     </row>
@@ -2660,22 +2657,22 @@
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>1.7105263157894737</v>
       </c>
-      <c r="L45" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="L45" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M45" s="1">
         <v>20</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>0.35</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>0</v>
       </c>
     </row>
@@ -2710,22 +2707,22 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>1.7105263157894737</v>
       </c>
-      <c r="L46" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="L46" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M46" s="1">
         <v>20</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>0.35</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>0</v>
       </c>
     </row>
@@ -2760,22 +2757,22 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>1.8947368421052631</v>
       </c>
-      <c r="L47" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="L47" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M47" s="1">
         <v>14</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>0.2857142857142857</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>0</v>
       </c>
     </row>
@@ -2810,22 +2807,22 @@
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>1.736842105263158</v>
       </c>
-      <c r="L48" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="L48" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M48" s="1">
         <v>24</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>0</v>
       </c>
     </row>
@@ -2860,77 +2857,31 @@
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>1.6842105263157894</v>
       </c>
-      <c r="L49" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="L49" s="1">
+        <v>0.97782963827304548</v>
+      </c>
+      <c r="M49" s="1">
         <v>22</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>0.13636363636363635</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1.9473684210526316</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0.97782963827304548</v>
-      </c>
-      <c r="M50" s="2">
-        <v>15</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="O50" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P50" s="1">
-        <v>1</v>
-      </c>
+      <c r="M50" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R50">
+  <autoFilter ref="A1:P49" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P50">
     <sortCondition ref="B2:B50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/processed/admission/app_test_dataset.xlsx
+++ b/data/processed/admission/app_test_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.serna\Documents\Github\ds4a-team-62\data\processed\admission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Synced_PCs\github\ds4a-team-62\data\processed\admission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE79E3-0B42-47E3-9074-299D6E285516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACBEF7B-9484-4258-B946-9E63428688ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -417,7 +415,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2352,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>1</v>

--- a/data/processed/admission/app_test_dataset.xlsx
+++ b/data/processed/admission/app_test_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Synced_PCs\github\ds4a-team-62\data\processed\admission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.serna\Documents\Github\ds4a-team-62\data\processed\admission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACBEF7B-9484-4258-B946-9E63428688ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB985AA-3733-4924-A877-CDD1CEE83275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -629,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -729,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -779,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -929,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1029,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1129,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1229,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1329,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1479,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1529,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1579,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1729,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1929,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2029,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2129,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2279,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2379,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2479,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2579,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2679,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>

--- a/data/processed/admission/app_test_dataset.xlsx
+++ b/data/processed/admission/app_test_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.serna\Documents\Github\ds4a-team-62\data\processed\admission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB985AA-3733-4924-A877-CDD1CEE83275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA0D851-F05C-4CB3-B9A2-D63DCED7877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -677,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -827,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1027,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1177,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1277,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1377,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1427,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1477,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1727,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1877,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1977,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2077,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2177,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2627,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2727,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2777,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2827,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2876,7 +2878,6 @@
       <c r="M50" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P49" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P50">
     <sortCondition ref="B2:B50"/>
   </sortState>
